--- a/DOC/应用设计.xlsx
+++ b/DOC/应用设计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B4CE1-86D8-42A1-BC62-9BF35BD8B4B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776EAD02-2228-417B-9067-A5AF8E2DCEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体架构" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>技术选型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>主页页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,6 +369,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,6 +392,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,45 +456,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -467,13 +471,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -818,11 +822,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9" style="2"/>
@@ -841,167 +845,167 @@
     <col min="22" max="22" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:26" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-    </row>
-    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="17" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-    </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="18" t="s">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="31" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="33" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="23" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="17" t="s">
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="19"/>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+    </row>
+    <row r="4" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="36">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="23">
         <v>43361</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="38" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
       <c r="S4" s="8">
         <v>1</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
@@ -1017,17 +1021,17 @@
       <c r="S5" s="8">
         <v>2</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="26"/>
-      <c r="V5" s="27"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -1049,17 +1053,17 @@
       <c r="S6" s="8">
         <v>3</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="26"/>
-      <c r="V6" s="27"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -1081,17 +1085,17 @@
       <c r="S7" s="8">
         <v>4</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="27"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -1110,16 +1114,20 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="27"/>
+      <c r="S8" s="8">
+        <v>5</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1139,15 +1147,15 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="27"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1167,15 +1175,15 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="27"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -1195,15 +1203,15 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="27"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -1223,15 +1231,15 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="27"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1251,15 +1259,15 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="27"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -1279,15 +1287,15 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="27"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1307,15 +1315,15 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="27"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1335,15 +1343,15 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="27"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1363,15 +1371,15 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="27"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="11"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1391,15 +1399,15 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="27"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="11"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1419,15 +1427,15 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="27"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="11"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1447,15 +1455,15 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="27"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -1475,15 +1483,15 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="27"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="11"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -1503,15 +1511,15 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
       <c r="S22" s="8"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="27"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="11"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1531,15 +1539,15 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="27"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="11"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -1559,15 +1567,15 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
       <c r="S24" s="8"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="27"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="11"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -1587,15 +1595,15 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="27"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -1615,15 +1623,15 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="5"/>
       <c r="S26" s="8"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="27"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="11"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -1643,15 +1651,15 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
       <c r="S27" s="8"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="27"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="11"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -1671,15 +1679,15 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
       <c r="S28" s="8"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="27"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="11"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -1699,15 +1707,15 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
       <c r="S29" s="8"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="27"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="11"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -1727,15 +1735,15 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="27"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="11"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1755,15 +1763,15 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="27"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="11"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -1783,15 +1791,15 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="27"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="11"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1811,15 +1819,15 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
       <c r="S33" s="8"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="27"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="11"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -1839,15 +1847,15 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
       <c r="S34" s="8"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="27"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="11"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1867,15 +1875,15 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
       <c r="S35" s="8"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="27"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="11"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -1895,15 +1903,15 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="27"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="11"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1923,15 +1931,15 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="5"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="27"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="11"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1951,15 +1959,15 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="5"/>
       <c r="S38" s="8"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="27"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="11"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1979,11 +1987,11 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="5"/>
       <c r="S39" s="8"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="27"/>
-    </row>
-    <row r="40" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="11"/>
+    </row>
+    <row r="40" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -2003,11 +2011,11 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="5"/>
       <c r="S40" s="8"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="27"/>
-    </row>
-    <row r="41" spans="1:26" s="6" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="11"/>
+    </row>
+    <row r="41" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -2027,11 +2035,11 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="5"/>
       <c r="S41" s="8"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="27"/>
-    </row>
-    <row r="42" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="11"/>
+    </row>
+    <row r="42" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -2051,11 +2059,11 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="5"/>
       <c r="S42" s="8"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="27"/>
-    </row>
-    <row r="43" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2075,11 +2083,11 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="5"/>
       <c r="S43" s="8"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="27"/>
-    </row>
-    <row r="44" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="11"/>
+    </row>
+    <row r="44" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2099,11 +2107,11 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="5"/>
       <c r="S44" s="8"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="27"/>
-    </row>
-    <row r="45" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="11"/>
+    </row>
+    <row r="45" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2123,11 +2131,11 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="5"/>
       <c r="S45" s="8"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="27"/>
-    </row>
-    <row r="46" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="11"/>
+    </row>
+    <row r="46" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -2147,11 +2155,11 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="5"/>
       <c r="S46" s="8"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="27"/>
-    </row>
-    <row r="47" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="11"/>
+    </row>
+    <row r="47" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -2171,11 +2179,11 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="5"/>
       <c r="S47" s="8"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="27"/>
-    </row>
-    <row r="48" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="11"/>
+    </row>
+    <row r="48" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -2195,11 +2203,11 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="5"/>
       <c r="S48" s="8"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="27"/>
-    </row>
-    <row r="49" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="11"/>
+    </row>
+    <row r="49" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -2219,11 +2227,11 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="5"/>
       <c r="S49" s="8"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="27"/>
-    </row>
-    <row r="50" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="11"/>
+    </row>
+    <row r="50" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -2243,11 +2251,11 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="5"/>
       <c r="S50" s="8"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="27"/>
-    </row>
-    <row r="51" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="11"/>
+    </row>
+    <row r="51" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -2267,11 +2275,11 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="5"/>
       <c r="S51" s="8"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="27"/>
-    </row>
-    <row r="52" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="11"/>
+    </row>
+    <row r="52" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -2291,11 +2299,11 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="5"/>
       <c r="S52" s="8"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="27"/>
-    </row>
-    <row r="53" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="11"/>
+    </row>
+    <row r="53" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -2315,11 +2323,11 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="5"/>
       <c r="S53" s="8"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="27"/>
-    </row>
-    <row r="54" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="11"/>
+    </row>
+    <row r="54" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -2339,11 +2347,11 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="5"/>
       <c r="S54" s="8"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="27"/>
-    </row>
-    <row r="55" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="11"/>
+    </row>
+    <row r="55" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -2363,11 +2371,11 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="5"/>
       <c r="S55" s="8"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="27"/>
-    </row>
-    <row r="56" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="11"/>
+    </row>
+    <row r="56" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -2387,11 +2395,11 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="5"/>
       <c r="S56" s="8"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="27"/>
-    </row>
-    <row r="57" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="11"/>
+    </row>
+    <row r="57" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -2411,11 +2419,11 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="5"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="27"/>
-    </row>
-    <row r="58" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="11"/>
+    </row>
+    <row r="58" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -2435,11 +2443,11 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="5"/>
       <c r="S58" s="8"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="27"/>
-    </row>
-    <row r="59" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="11"/>
+    </row>
+    <row r="59" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -2459,11 +2467,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="5"/>
       <c r="S59" s="8"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="27"/>
-    </row>
-    <row r="60" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="11"/>
+    </row>
+    <row r="60" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -2483,11 +2491,11 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="5"/>
       <c r="S60" s="8"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="27"/>
-    </row>
-    <row r="61" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="11"/>
+    </row>
+    <row r="61" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -2507,11 +2515,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="5"/>
       <c r="S61" s="8"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="27"/>
-    </row>
-    <row r="62" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="11"/>
+    </row>
+    <row r="62" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -2531,11 +2539,11 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="5"/>
       <c r="S62" s="8"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="27"/>
-    </row>
-    <row r="63" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="11"/>
+    </row>
+    <row r="63" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -2555,11 +2563,11 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="5"/>
       <c r="S63" s="8"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="27"/>
-    </row>
-    <row r="64" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="11"/>
+    </row>
+    <row r="64" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -2579,11 +2587,11 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="5"/>
       <c r="S64" s="8"/>
-      <c r="T64" s="26"/>
-      <c r="U64" s="26"/>
-      <c r="V64" s="27"/>
-    </row>
-    <row r="65" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="11"/>
+    </row>
+    <row r="65" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -2603,11 +2611,11 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="5"/>
       <c r="S65" s="8"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="27"/>
-    </row>
-    <row r="66" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="11"/>
+    </row>
+    <row r="66" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -2627,11 +2635,11 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="5"/>
       <c r="S66" s="8"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="27"/>
-    </row>
-    <row r="67" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="11"/>
+    </row>
+    <row r="67" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -2651,11 +2659,11 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="5"/>
       <c r="S67" s="8"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="26"/>
-      <c r="V67" s="27"/>
-    </row>
-    <row r="68" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="11"/>
+    </row>
+    <row r="68" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -2675,11 +2683,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="5"/>
       <c r="S68" s="8"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="27"/>
-    </row>
-    <row r="69" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="11"/>
+    </row>
+    <row r="69" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -2699,11 +2707,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="5"/>
       <c r="S69" s="8"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="27"/>
-    </row>
-    <row r="70" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="11"/>
+    </row>
+    <row r="70" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -2723,11 +2731,11 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="5"/>
       <c r="S70" s="8"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="26"/>
-      <c r="V70" s="27"/>
-    </row>
-    <row r="71" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="11"/>
+    </row>
+    <row r="71" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -2747,11 +2755,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="5"/>
       <c r="S71" s="8"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="27"/>
-    </row>
-    <row r="72" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="11"/>
+    </row>
+    <row r="72" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -2771,11 +2779,11 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="5"/>
       <c r="S72" s="8"/>
-      <c r="T72" s="26"/>
-      <c r="U72" s="26"/>
-      <c r="V72" s="27"/>
-    </row>
-    <row r="73" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="11"/>
+    </row>
+    <row r="73" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -2795,11 +2803,11 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="5"/>
       <c r="S73" s="8"/>
-      <c r="T73" s="26"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="27"/>
-    </row>
-    <row r="74" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="11"/>
+    </row>
+    <row r="74" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -2819,11 +2827,11 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="5"/>
       <c r="S74" s="8"/>
-      <c r="T74" s="26"/>
-      <c r="U74" s="26"/>
-      <c r="V74" s="27"/>
-    </row>
-    <row r="75" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="11"/>
+    </row>
+    <row r="75" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -2843,11 +2851,11 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="5"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="26"/>
-      <c r="U75" s="26"/>
-      <c r="V75" s="27"/>
-    </row>
-    <row r="76" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="11"/>
+    </row>
+    <row r="76" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -2867,11 +2875,11 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="5"/>
       <c r="S76" s="8"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="27"/>
-    </row>
-    <row r="77" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="11"/>
+    </row>
+    <row r="77" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -2891,11 +2899,11 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="5"/>
       <c r="S77" s="8"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="26"/>
-      <c r="V77" s="27"/>
-    </row>
-    <row r="78" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="11"/>
+    </row>
+    <row r="78" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -2915,11 +2923,11 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="5"/>
       <c r="S78" s="8"/>
-      <c r="T78" s="26"/>
-      <c r="U78" s="26"/>
-      <c r="V78" s="27"/>
-    </row>
-    <row r="79" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="11"/>
+    </row>
+    <row r="79" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -2939,11 +2947,11 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="5"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="27"/>
-    </row>
-    <row r="80" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="11"/>
+    </row>
+    <row r="80" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -2963,11 +2971,11 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="5"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="26"/>
-      <c r="U80" s="26"/>
-      <c r="V80" s="27"/>
-    </row>
-    <row r="81" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="11"/>
+    </row>
+    <row r="81" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -2987,11 +2995,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="5"/>
       <c r="S81" s="8"/>
-      <c r="T81" s="26"/>
-      <c r="U81" s="26"/>
-      <c r="V81" s="27"/>
-    </row>
-    <row r="82" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="11"/>
+    </row>
+    <row r="82" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -3011,11 +3019,11 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="5"/>
       <c r="S82" s="8"/>
-      <c r="T82" s="26"/>
-      <c r="U82" s="26"/>
-      <c r="V82" s="27"/>
-    </row>
-    <row r="83" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="11"/>
+    </row>
+    <row r="83" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -3039,7 +3047,7 @@
       <c r="U83" s="4"/>
       <c r="V83" s="5"/>
     </row>
-    <row r="84" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -3063,7 +3071,7 @@
       <c r="U84" s="4"/>
       <c r="V84" s="5"/>
     </row>
-    <row r="85" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -3087,7 +3095,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="5"/>
     </row>
-    <row r="86" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -3111,7 +3119,7 @@
       <c r="U86" s="4"/>
       <c r="V86" s="5"/>
     </row>
-    <row r="87" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -3137,78 +3145,18 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="T82:V82"/>
-    <mergeCell ref="T71:V71"/>
-    <mergeCell ref="T72:V72"/>
-    <mergeCell ref="T73:V73"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="T76:V76"/>
-    <mergeCell ref="T77:V77"/>
-    <mergeCell ref="T78:V78"/>
-    <mergeCell ref="T79:V79"/>
-    <mergeCell ref="T80:V80"/>
-    <mergeCell ref="T81:V81"/>
-    <mergeCell ref="T70:V70"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="T68:V68"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G4:I4"/>
@@ -3223,18 +3171,78 @@
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="T9:V9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T70:V70"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="T68:V68"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="T82:V82"/>
+    <mergeCell ref="T71:V71"/>
+    <mergeCell ref="T72:V72"/>
+    <mergeCell ref="T73:V73"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="T76:V76"/>
+    <mergeCell ref="T77:V77"/>
+    <mergeCell ref="T78:V78"/>
+    <mergeCell ref="T79:V79"/>
+    <mergeCell ref="T80:V80"/>
+    <mergeCell ref="T81:V81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3246,20 +3254,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47455524-6ACC-4F80-9D07-BBB8E0FF18EC}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="44.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:26" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="40"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="51"/>
@@ -3288,35 +3296,35 @@
       <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -3339,7 +3347,7 @@
       <c r="T4" s="42"/>
       <c r="U4" s="43"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -3362,7 +3370,7 @@
       <c r="T5" s="45"/>
       <c r="U5" s="46"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -3385,7 +3393,7 @@
       <c r="T6" s="45"/>
       <c r="U6" s="46"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -3408,7 +3416,7 @@
       <c r="T7" s="45"/>
       <c r="U7" s="46"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -3431,7 +3439,7 @@
       <c r="T8" s="45"/>
       <c r="U8" s="46"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -3454,7 +3462,7 @@
       <c r="T9" s="45"/>
       <c r="U9" s="46"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -3477,7 +3485,7 @@
       <c r="T10" s="45"/>
       <c r="U10" s="46"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -3500,7 +3508,7 @@
       <c r="T11" s="45"/>
       <c r="U11" s="46"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -3523,7 +3531,7 @@
       <c r="T12" s="45"/>
       <c r="U12" s="46"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -3546,7 +3554,7 @@
       <c r="T13" s="45"/>
       <c r="U13" s="46"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -3569,7 +3577,7 @@
       <c r="T14" s="45"/>
       <c r="U14" s="46"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -3592,7 +3600,7 @@
       <c r="T15" s="45"/>
       <c r="U15" s="46"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -3615,7 +3623,7 @@
       <c r="T16" s="45"/>
       <c r="U16" s="46"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -3638,7 +3646,7 @@
       <c r="T17" s="45"/>
       <c r="U17" s="46"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -3661,7 +3669,7 @@
       <c r="T18" s="45"/>
       <c r="U18" s="46"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -3684,7 +3692,7 @@
       <c r="T19" s="45"/>
       <c r="U19" s="46"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3707,7 +3715,7 @@
       <c r="T20" s="45"/>
       <c r="U20" s="46"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -3730,7 +3738,7 @@
       <c r="T21" s="45"/>
       <c r="U21" s="46"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -3753,7 +3761,7 @@
       <c r="T22" s="45"/>
       <c r="U22" s="46"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="44"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -3776,7 +3784,7 @@
       <c r="T23" s="45"/>
       <c r="U23" s="46"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="44"/>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
@@ -3799,7 +3807,7 @@
       <c r="T24" s="45"/>
       <c r="U24" s="46"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="44"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -3822,7 +3830,7 @@
       <c r="T25" s="45"/>
       <c r="U25" s="46"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -3845,7 +3853,7 @@
       <c r="T26" s="45"/>
       <c r="U26" s="46"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -3868,7 +3876,7 @@
       <c r="T27" s="45"/>
       <c r="U27" s="46"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="44"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
@@ -3891,7 +3899,7 @@
       <c r="T28" s="45"/>
       <c r="U28" s="46"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
@@ -3914,7 +3922,7 @@
       <c r="T29" s="45"/>
       <c r="U29" s="46"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="44"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -3937,7 +3945,7 @@
       <c r="T30" s="45"/>
       <c r="U30" s="46"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="44"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -3960,7 +3968,7 @@
       <c r="T31" s="45"/>
       <c r="U31" s="46"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -3983,7 +3991,7 @@
       <c r="T32" s="45"/>
       <c r="U32" s="46"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="44"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -4006,7 +4014,7 @@
       <c r="T33" s="45"/>
       <c r="U33" s="46"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="44"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -4029,7 +4037,7 @@
       <c r="T34" s="45"/>
       <c r="U34" s="46"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="44"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -4052,7 +4060,7 @@
       <c r="T35" s="45"/>
       <c r="U35" s="46"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="44"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -4075,7 +4083,7 @@
       <c r="T36" s="45"/>
       <c r="U36" s="46"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="44"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -4098,7 +4106,7 @@
       <c r="T37" s="45"/>
       <c r="U37" s="46"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>

--- a/DOC/应用设计.xlsx
+++ b/DOC/应用设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776EAD02-2228-417B-9067-A5AF8E2DCEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854A78F-7B81-4A3E-8C59-46F7466298A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>技术选型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,20 @@
   </si>
   <si>
     <t>Loading页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>1.主页Demo开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Loading Demo开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -369,21 +383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,30 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,6 +431,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -479,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +840,7 @@
   <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:V5"/>
+      <selection activeCell="N6" sqref="N6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -845,153 +862,153 @@
     <col min="22" max="22" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:26" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="18" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="36" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="30" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="23">
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="36">
         <v>43361</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="25" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="8">
         <v>1</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -1001,31 +1018,37 @@
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+      <c r="J5" s="36">
+        <v>43362</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
       <c r="S5" s="8">
         <v>2</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -1041,23 +1064,29 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
+      <c r="J6" s="36">
+        <v>43363</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
       <c r="S6" s="8">
         <v>3</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="11"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -1085,11 +1114,11 @@
       <c r="S7" s="8">
         <v>4</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="27"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -1117,11 +1146,11 @@
       <c r="S8" s="8">
         <v>5</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="11"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -1147,9 +1176,9 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="27"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -1175,9 +1204,9 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -1203,9 +1232,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="27"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -1231,9 +1260,9 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -1259,9 +1288,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -1287,9 +1316,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -1315,9 +1344,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -1343,9 +1372,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -1371,9 +1400,9 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="27"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -1399,9 +1428,9 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -1427,9 +1456,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -1455,9 +1484,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -1483,9 +1512,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -1511,9 +1540,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
       <c r="S22" s="8"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -1539,9 +1568,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="27"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -1567,9 +1596,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
       <c r="S24" s="8"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="27"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
@@ -1595,9 +1624,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="27"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -1623,9 +1652,9 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="5"/>
       <c r="S26" s="8"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="27"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -1651,9 +1680,9 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
       <c r="S27" s="8"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="27"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -1679,9 +1708,9 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
       <c r="S28" s="8"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="27"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
@@ -1707,9 +1736,9 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
       <c r="S29" s="8"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="27"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -1735,9 +1764,9 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="27"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -1763,9 +1792,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="27"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -1791,9 +1820,9 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="11"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="27"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
@@ -1819,9 +1848,9 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
       <c r="S33" s="8"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="11"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="27"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
@@ -1847,9 +1876,9 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
       <c r="S34" s="8"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="11"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="27"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
@@ -1875,9 +1904,9 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
       <c r="S35" s="8"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="11"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="27"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -1903,9 +1932,9 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
       <c r="S36" s="8"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="11"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="27"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
@@ -1931,9 +1960,9 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="5"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="11"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="27"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
@@ -1959,9 +1988,9 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="5"/>
       <c r="S38" s="8"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="11"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="27"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -1987,9 +2016,9 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="5"/>
       <c r="S39" s="8"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="11"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
@@ -2011,9 +2040,9 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="5"/>
       <c r="S40" s="8"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="11"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="27"/>
     </row>
     <row r="41" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -2035,9 +2064,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="5"/>
       <c r="S41" s="8"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="11"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="27"/>
     </row>
     <row r="42" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
@@ -2059,9 +2088,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="5"/>
       <c r="S42" s="8"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="11"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="27"/>
     </row>
     <row r="43" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -2083,9 +2112,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="5"/>
       <c r="S43" s="8"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="11"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="27"/>
     </row>
     <row r="44" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
@@ -2107,9 +2136,9 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="5"/>
       <c r="S44" s="8"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="11"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="27"/>
     </row>
     <row r="45" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
@@ -2131,9 +2160,9 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="5"/>
       <c r="S45" s="8"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="11"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="27"/>
     </row>
     <row r="46" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
@@ -2155,9 +2184,9 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="5"/>
       <c r="S46" s="8"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="11"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="27"/>
     </row>
     <row r="47" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -2179,9 +2208,9 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="5"/>
       <c r="S47" s="8"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="11"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="27"/>
     </row>
     <row r="48" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
@@ -2203,9 +2232,9 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="5"/>
       <c r="S48" s="8"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="11"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="27"/>
     </row>
     <row r="49" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -2227,9 +2256,9 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="5"/>
       <c r="S49" s="8"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="11"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="27"/>
     </row>
     <row r="50" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
@@ -2251,9 +2280,9 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="5"/>
       <c r="S50" s="8"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="11"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="27"/>
     </row>
     <row r="51" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
@@ -2275,9 +2304,9 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="5"/>
       <c r="S51" s="8"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="11"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="27"/>
     </row>
     <row r="52" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
@@ -2299,9 +2328,9 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="5"/>
       <c r="S52" s="8"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="11"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="27"/>
     </row>
     <row r="53" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
@@ -2323,9 +2352,9 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="5"/>
       <c r="S53" s="8"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="11"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="27"/>
     </row>
     <row r="54" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
@@ -2347,9 +2376,9 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="5"/>
       <c r="S54" s="8"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="11"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="27"/>
     </row>
     <row r="55" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
@@ -2371,9 +2400,9 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="5"/>
       <c r="S55" s="8"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="11"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="27"/>
     </row>
     <row r="56" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
@@ -2395,9 +2424,9 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="5"/>
       <c r="S56" s="8"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="11"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="27"/>
     </row>
     <row r="57" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
@@ -2419,9 +2448,9 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="5"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="11"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="27"/>
     </row>
     <row r="58" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
@@ -2443,9 +2472,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="5"/>
       <c r="S58" s="8"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="11"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="27"/>
     </row>
     <row r="59" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
@@ -2467,9 +2496,9 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="5"/>
       <c r="S59" s="8"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="11"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="27"/>
     </row>
     <row r="60" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
@@ -2491,9 +2520,9 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="5"/>
       <c r="S60" s="8"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="11"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="27"/>
     </row>
     <row r="61" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
@@ -2515,9 +2544,9 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="5"/>
       <c r="S61" s="8"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="11"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="27"/>
     </row>
     <row r="62" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
@@ -2539,9 +2568,9 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="5"/>
       <c r="S62" s="8"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="11"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="27"/>
     </row>
     <row r="63" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
@@ -2563,9 +2592,9 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="5"/>
       <c r="S63" s="8"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="11"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="27"/>
     </row>
     <row r="64" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
@@ -2587,9 +2616,9 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="5"/>
       <c r="S64" s="8"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="11"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="26"/>
+      <c r="V64" s="27"/>
     </row>
     <row r="65" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
@@ -2611,9 +2640,9 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="5"/>
       <c r="S65" s="8"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="11"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="26"/>
+      <c r="V65" s="27"/>
     </row>
     <row r="66" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -2635,9 +2664,9 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="5"/>
       <c r="S66" s="8"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="11"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="27"/>
     </row>
     <row r="67" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
@@ -2659,9 +2688,9 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="5"/>
       <c r="S67" s="8"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="11"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
+      <c r="V67" s="27"/>
     </row>
     <row r="68" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
@@ -2683,9 +2712,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="5"/>
       <c r="S68" s="8"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="11"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="27"/>
     </row>
     <row r="69" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
@@ -2707,9 +2736,9 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="5"/>
       <c r="S69" s="8"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="11"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="27"/>
     </row>
     <row r="70" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
@@ -2731,9 +2760,9 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="5"/>
       <c r="S70" s="8"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="11"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
+      <c r="V70" s="27"/>
     </row>
     <row r="71" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
@@ -2755,9 +2784,9 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="5"/>
       <c r="S71" s="8"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="11"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="27"/>
     </row>
     <row r="72" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
@@ -2779,9 +2808,9 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="5"/>
       <c r="S72" s="8"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="11"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+      <c r="V72" s="27"/>
     </row>
     <row r="73" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
@@ -2803,9 +2832,9 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="5"/>
       <c r="S73" s="8"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="11"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+      <c r="V73" s="27"/>
     </row>
     <row r="74" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
@@ -2827,9 +2856,9 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="5"/>
       <c r="S74" s="8"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="11"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+      <c r="V74" s="27"/>
     </row>
     <row r="75" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
@@ -2851,9 +2880,9 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="5"/>
       <c r="S75" s="8"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="11"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="27"/>
     </row>
     <row r="76" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
@@ -2875,9 +2904,9 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="5"/>
       <c r="S76" s="8"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="11"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="27"/>
     </row>
     <row r="77" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
@@ -2899,9 +2928,9 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="5"/>
       <c r="S77" s="8"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="11"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="27"/>
     </row>
     <row r="78" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
@@ -2923,9 +2952,9 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="5"/>
       <c r="S78" s="8"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="11"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="27"/>
     </row>
     <row r="79" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
@@ -2947,9 +2976,9 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="5"/>
       <c r="S79" s="8"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="11"/>
+      <c r="T79" s="26"/>
+      <c r="U79" s="26"/>
+      <c r="V79" s="27"/>
     </row>
     <row r="80" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
@@ -2971,9 +3000,9 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="5"/>
       <c r="S80" s="8"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="11"/>
+      <c r="T80" s="26"/>
+      <c r="U80" s="26"/>
+      <c r="V80" s="27"/>
     </row>
     <row r="81" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
@@ -2995,9 +3024,9 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="5"/>
       <c r="S81" s="8"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="11"/>
+      <c r="T81" s="26"/>
+      <c r="U81" s="26"/>
+      <c r="V81" s="27"/>
     </row>
     <row r="82" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
@@ -3019,9 +3048,9 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="5"/>
       <c r="S82" s="8"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="11"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="26"/>
+      <c r="V82" s="27"/>
     </row>
     <row r="83" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
@@ -3144,19 +3173,83 @@
       <c r="V87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
+  <mergeCells count="104">
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T82:V82"/>
+    <mergeCell ref="T71:V71"/>
+    <mergeCell ref="T72:V72"/>
+    <mergeCell ref="T73:V73"/>
+    <mergeCell ref="T74:V74"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="T76:V76"/>
+    <mergeCell ref="T77:V77"/>
+    <mergeCell ref="T78:V78"/>
+    <mergeCell ref="T79:V79"/>
+    <mergeCell ref="T80:V80"/>
+    <mergeCell ref="T81:V81"/>
+    <mergeCell ref="T70:V70"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="T68:V68"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T21:V21"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G4:I4"/>
@@ -3171,78 +3264,20 @@
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="T55:V55"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T70:V70"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="T68:V68"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="T82:V82"/>
-    <mergeCell ref="T71:V71"/>
-    <mergeCell ref="T72:V72"/>
-    <mergeCell ref="T73:V73"/>
-    <mergeCell ref="T74:V74"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="T76:V76"/>
-    <mergeCell ref="T77:V77"/>
-    <mergeCell ref="T78:V78"/>
-    <mergeCell ref="T79:V79"/>
-    <mergeCell ref="T80:V80"/>
-    <mergeCell ref="T81:V81"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3261,7 +3296,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="40"/>
